--- a/Running projects/BAF Head Office/001 Invoice for GI and PPRC Pipe.xlsx
+++ b/Running projects/BAF Head Office/001 Invoice for GI and PPRC Pipe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B09E44-817C-4E37-A2CE-F500AA7D207D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38739538-5391-48E8-9873-5CEAF33E25B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t>009</t>
   </si>
   <si>
-    <t>05 May 2025</t>
+    <t>20 May 2025</t>
   </si>
 </sst>
 </file>
@@ -987,77 +987,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1287,15 +1287,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>682626</xdr:colOff>
+      <xdr:colOff>476251</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>475805</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>140807</xdr:rowOff>
+      <xdr:colOff>269430</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>53495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1318,7 +1318,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6969126" y="293688"/>
+          <a:off x="6651626" y="404813"/>
           <a:ext cx="8183117" cy="7935432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1864,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C9F45E-8670-461E-9905-F1B9A503F7E7}">
   <dimension ref="A4:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1910,11 +1910,11 @@
       <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
     </row>
     <row r="11" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
@@ -1931,8 +1931,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="26"/>
       <c r="D12" s="23"/>
       <c r="F12" s="30"/>
@@ -1953,20 +1953,20 @@
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="84"/>
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
@@ -1981,10 +1981,10 @@
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="99"/>
+      <c r="H16" s="113"/>
     </row>
     <row r="17" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="75"/>
@@ -1997,16 +1997,16 @@
       <c r="H17" s="75"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
     </row>
     <row r="19" spans="1:9" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="85"/>
@@ -2019,26 +2019,26 @@
       <c r="H19" s="85"/>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
     </row>
     <row r="22" spans="1:9" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
@@ -2136,7 +2136,7 @@
         <v>32</v>
       </c>
       <c r="D27" s="17">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E27" s="18">
         <v>4850</v>
@@ -2146,11 +2146,11 @@
       </c>
       <c r="G27" s="18">
         <f>E27*D27</f>
-        <v>776000</v>
+        <v>727500</v>
       </c>
       <c r="H27" s="63">
         <f>F27*D27</f>
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="I27" s="13"/>
     </row>
@@ -2242,74 +2242,74 @@
       <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
       <c r="G31" s="77">
         <f>SUM(G26:G30)</f>
-        <v>876000</v>
+        <v>827500</v>
       </c>
       <c r="H31" s="77">
         <f>SUM(H26:H30)</f>
-        <v>265000</v>
+        <v>255000</v>
       </c>
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
       <c r="G32" s="20">
         <v>0</v>
       </c>
       <c r="H32" s="20">
         <f>H31*15%</f>
-        <v>39750</v>
+        <v>38250</v>
       </c>
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
       <c r="G33" s="20">
         <f>G32+G31</f>
-        <v>876000</v>
+        <v>827500</v>
       </c>
       <c r="H33" s="20">
         <f>H32+H31</f>
-        <v>304750</v>
+        <v>293250</v>
       </c>
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
       <c r="G34" s="67"/>
       <c r="H34" s="67">
         <f>H33+G33</f>
-        <v>1180750</v>
+        <v>1120750</v>
       </c>
       <c r="I34" s="13"/>
     </row>
@@ -2325,16 +2325,16 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" ht="24" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -2452,14 +2452,14 @@
       <c r="H42" s="44"/>
     </row>
     <row r="43" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="104"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="106"/>
       <c r="G43" s="45">
         <f>SUM(G40:G42)</f>
         <v>1330000</v>
@@ -2471,14 +2471,14 @@
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="107"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="109"/>
       <c r="G44" s="20">
         <v>0</v>
       </c>
@@ -2489,14 +2489,14 @@
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="108" t="s">
+      <c r="A45" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="110"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="99"/>
       <c r="G45" s="48">
         <f>G44+G43</f>
         <v>1330000</v>
@@ -2508,14 +2508,14 @@
       <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="111" t="s">
+      <c r="A46" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="113"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="93"/>
       <c r="G46" s="51"/>
       <c r="H46" s="52">
         <f>H45+G45</f>
@@ -2535,12 +2535,12 @@
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
       <c r="I48" s="13"/>
@@ -2557,10 +2557,10 @@
       <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:18" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="97" t="s">
+      <c r="A50" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="97"/>
+      <c r="B50" s="95"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
@@ -2580,9 +2580,9 @@
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
       <c r="H52" s="16"/>
       <c r="I52" s="15"/>
       <c r="J52" s="13"/>
@@ -2595,38 +2595,36 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="88"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
       <c r="G54" s="68"/>
       <c r="O54" s="13"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
       <c r="G55" s="69"/>
       <c r="O55" s="13"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I59" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A20:H21"/>
     <mergeCell ref="A23:H23"/>
@@ -2638,12 +2636,14 @@
     <mergeCell ref="A37:H37"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -2690,11 +2690,11 @@
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
     </row>
     <row r="9" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
@@ -2711,8 +2711,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="F10" s="30"/>
@@ -2733,20 +2733,20 @@
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
     </row>
     <row r="13" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="73"/>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
@@ -2761,10 +2761,10 @@
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
-      <c r="G14" s="99" t="s">
+      <c r="G14" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="99"/>
+      <c r="H14" s="113"/>
     </row>
     <row r="15" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75"/>
@@ -2777,16 +2777,16 @@
       <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
     </row>
     <row r="17" spans="1:9" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="76"/>
@@ -2799,26 +2799,26 @@
       <c r="H17" s="76"/>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
     </row>
     <row r="20" spans="1:9" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
@@ -2843,16 +2843,16 @@
       <c r="H21" s="101"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
     </row>
     <row r="23" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
@@ -3034,14 +3034,14 @@
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
       <c r="G30" s="77">
         <f>SUM(G25:G29)</f>
         <v>1372000</v>
@@ -3053,14 +3053,14 @@
       <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
       <c r="G31" s="20">
         <v>0</v>
       </c>
@@ -3071,14 +3071,14 @@
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
       <c r="G32" s="20">
         <f>G31+G30</f>
         <v>1372000</v>
@@ -3090,14 +3090,14 @@
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
       <c r="G33" s="67"/>
       <c r="H33" s="67">
         <f>H32+G32</f>
@@ -3117,16 +3117,16 @@
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="100" t="s">
+      <c r="A35" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
@@ -3244,14 +3244,14 @@
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="104"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="106"/>
       <c r="G42" s="45">
         <f>SUM(G39:G41)</f>
         <v>1330000</v>
@@ -3263,14 +3263,14 @@
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="107"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="109"/>
       <c r="G43" s="20">
         <v>0</v>
       </c>
@@ -3281,14 +3281,14 @@
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="99"/>
       <c r="G44" s="48">
         <f>G43+G42</f>
         <v>1330000</v>
@@ -3300,14 +3300,14 @@
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="111" t="s">
+      <c r="A45" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="113"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
       <c r="G45" s="51"/>
       <c r="H45" s="52">
         <f>H44+G44</f>
@@ -3327,12 +3327,12 @@
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="92"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
       <c r="G47" s="58"/>
       <c r="H47" s="58"/>
       <c r="I47" s="13"/>
@@ -3349,10 +3349,10 @@
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:18" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="97"/>
+      <c r="B49" s="95"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -3372,9 +3372,9 @@
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
       <c r="H51" s="16"/>
       <c r="I51" s="15"/>
       <c r="J51" s="13"/>
@@ -3387,30 +3387,40 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="88"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
       <c r="G53" s="68"/>
       <c r="O53" s="13"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
       <c r="G54" s="69"/>
       <c r="O54" s="13"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I58" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="E51:G51"/>
@@ -3427,16 +3437,6 @@
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/Running projects/BAF Head Office/001 Invoice for GI and PPRC Pipe.xlsx
+++ b/Running projects/BAF Head Office/001 Invoice for GI and PPRC Pipe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38739538-5391-48E8-9873-5CEAF33E25B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD38020-5183-431F-9B57-C18E8B6FCA08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>S. #</t>
   </si>
@@ -153,6 +153,27 @@
   </si>
   <si>
     <t>20 May 2025</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Less 5.5%</t>
+  </si>
+  <si>
+    <t>Less5% GST on material</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Less 11%</t>
+  </si>
+  <si>
+    <t>Less 20% SST</t>
+  </si>
+  <si>
+    <t>CHQ Amount</t>
   </si>
 </sst>
 </file>
@@ -165,7 +186,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +317,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -744,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -987,77 +1013,110 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1081,16 +1140,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>830263</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536574</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409958</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>122237</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>650874</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1119,8 +1178,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7005638" y="11195050"/>
-          <a:ext cx="643320" cy="595312"/>
+          <a:off x="4600574" y="12734925"/>
+          <a:ext cx="765175" cy="595312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1286,16 +1345,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>611188</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>269430</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>53495</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>293242</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>77307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1318,7 +1377,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6651626" y="404813"/>
+          <a:off x="8199438" y="2809875"/>
           <a:ext cx="8183117" cy="7935432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1862,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C9F45E-8670-461E-9905-F1B9A503F7E7}">
-  <dimension ref="A4:R59"/>
+  <dimension ref="A4:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1876,8 +1935,8 @@
     <col min="4" max="4" width="5.42578125" style="82" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="82" customWidth="1"/>
     <col min="6" max="7" width="9.7109375" style="82" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" style="1"/>
@@ -1910,11 +1969,11 @@
       <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
     </row>
     <row r="11" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
@@ -1931,8 +1990,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="26"/>
       <c r="D12" s="23"/>
       <c r="F12" s="30"/>
@@ -1953,20 +2012,20 @@
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
     </row>
     <row r="15" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="112"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="84"/>
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
@@ -1981,10 +2040,10 @@
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
-      <c r="G16" s="113" t="s">
+      <c r="G16" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="123"/>
     </row>
     <row r="17" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="75"/>
@@ -1997,16 +2056,16 @@
       <c r="H17" s="75"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
     </row>
     <row r="19" spans="1:9" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="85"/>
@@ -2019,26 +2078,26 @@
       <c r="H19" s="85"/>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
     </row>
     <row r="22" spans="1:9" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
@@ -2051,16 +2110,16 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
     </row>
     <row r="24" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="86"/>
@@ -2242,14 +2301,14 @@
       <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
       <c r="G31" s="77">
         <f>SUM(G26:G30)</f>
         <v>827500</v>
@@ -2261,14 +2320,14 @@
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
       <c r="G32" s="20">
         <v>0</v>
       </c>
@@ -2279,14 +2338,14 @@
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
       <c r="G33" s="20">
         <f>G32+G31</f>
         <v>827500</v>
@@ -2298,14 +2357,14 @@
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
       <c r="G34" s="67"/>
       <c r="H34" s="67">
         <f>H33+G33</f>
@@ -2325,29 +2384,29 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="103" t="s">
+      <c r="A36" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" ht="24" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
     </row>
     <row r="38" spans="1:10" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="86"/>
@@ -2452,14 +2511,14 @@
       <c r="H42" s="44"/>
     </row>
     <row r="43" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="106"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="116"/>
       <c r="G43" s="45">
         <f>SUM(G40:G42)</f>
         <v>1330000</v>
@@ -2471,14 +2530,14 @@
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="107" t="s">
+      <c r="A44" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="119"/>
       <c r="G44" s="20">
         <v>0</v>
       </c>
@@ -2489,14 +2548,14 @@
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:10" ht="19.5" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="99"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="109"/>
       <c r="G45" s="48">
         <f>G44+G43</f>
         <v>1330000</v>
@@ -2508,14 +2567,14 @@
       <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="101"/>
       <c r="G46" s="51"/>
       <c r="H46" s="52">
         <f>H45+G45</f>
@@ -2535,12 +2594,12 @@
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="94"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
       <c r="I48" s="13"/>
@@ -2557,16 +2616,20 @@
       <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:18" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="95"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="64"/>
+      <c r="E50" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="91">
+        <v>827500</v>
+      </c>
       <c r="I50" s="65"/>
       <c r="J50" s="66"/>
       <c r="M50" s="64"/>
@@ -2574,51 +2637,135 @@
       <c r="R50" s="66"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F51" s="8"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="9"/>
+      <c r="E51" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="92">
+        <f>H50*5.5%</f>
+        <v>45512.5</v>
+      </c>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="16"/>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="93">
+        <f>H50-H51</f>
+        <v>781987.5</v>
+      </c>
       <c r="I52" s="15"/>
       <c r="J52" s="13"/>
       <c r="M52" s="2"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E53" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="94">
+        <f>G33*5/118</f>
+        <v>35063.5593220339</v>
+      </c>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
       <c r="M53" s="2"/>
       <c r="O53" s="13"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="88"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="68"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="94">
+        <f>H52-H53</f>
+        <v>746923.94067796611</v>
+      </c>
+      <c r="I54" s="13"/>
       <c r="O54" s="13"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
       <c r="G55" s="69"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="70"/>
       <c r="O55" s="13"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
+      <c r="E56" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="91">
+        <f>H33</f>
+        <v>293250</v>
+      </c>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
+      <c r="E57" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="96">
+        <f>H56*11%</f>
+        <v>32257.5</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E58" s="98"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="93">
+        <f>H56-H57</f>
+        <v>260992.5</v>
+      </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E59" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="98"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="94">
+        <f>H32*20%</f>
+        <v>7650</v>
+      </c>
       <c r="I59" s="70"/>
     </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E60" s="98"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="94">
+        <f>H58-H59</f>
+        <v>253342.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H61" s="95"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E62" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="97">
+        <f>H60+H54</f>
+        <v>1000266.4406779661</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="32">
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:B12"/>
@@ -2636,14 +2783,21 @@
     <mergeCell ref="A37:H37"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E62:G62"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A48:F48"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -2690,11 +2844,11 @@
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
     </row>
     <row r="9" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
@@ -2711,8 +2865,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="26"/>
       <c r="D10" s="23"/>
       <c r="F10" s="30"/>
@@ -2733,20 +2887,20 @@
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
     </row>
     <row r="13" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="73"/>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
@@ -2761,10 +2915,10 @@
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
-      <c r="G14" s="113" t="s">
+      <c r="G14" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="113"/>
+      <c r="H14" s="123"/>
     </row>
     <row r="15" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75"/>
@@ -2777,16 +2931,16 @@
       <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
     </row>
     <row r="17" spans="1:9" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="76"/>
@@ -2799,26 +2953,26 @@
       <c r="H17" s="76"/>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
     </row>
     <row r="20" spans="1:9" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
@@ -2831,28 +2985,28 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
     </row>
     <row r="23" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
@@ -3034,14 +3188,14 @@
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
       <c r="G30" s="77">
         <f>SUM(G25:G29)</f>
         <v>1372000</v>
@@ -3053,14 +3207,14 @@
       <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
       <c r="G31" s="20">
         <v>0</v>
       </c>
@@ -3071,14 +3225,14 @@
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
       <c r="G32" s="20">
         <f>G31+G30</f>
         <v>1372000</v>
@@ -3090,14 +3244,14 @@
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
       <c r="G33" s="67"/>
       <c r="H33" s="67">
         <f>H32+G32</f>
@@ -3117,29 +3271,29 @@
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
     </row>
     <row r="37" spans="1:10" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
@@ -3244,14 +3398,14 @@
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="106"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="116"/>
       <c r="G42" s="45">
         <f>SUM(G39:G41)</f>
         <v>1330000</v>
@@ -3263,14 +3417,14 @@
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="107" t="s">
+      <c r="A43" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="109"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="119"/>
       <c r="G43" s="20">
         <v>0</v>
       </c>
@@ -3281,14 +3435,14 @@
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="99"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="109"/>
       <c r="G44" s="48">
         <f>G43+G42</f>
         <v>1330000</v>
@@ -3300,14 +3454,14 @@
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="93"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="101"/>
       <c r="G45" s="51"/>
       <c r="H45" s="52">
         <f>H44+G44</f>
@@ -3327,12 +3481,12 @@
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
       <c r="G47" s="58"/>
       <c r="H47" s="58"/>
       <c r="I47" s="13"/>
@@ -3349,10 +3503,10 @@
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:18" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="95"/>
+      <c r="B49" s="103"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -3372,9 +3526,9 @@
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
       <c r="H51" s="16"/>
       <c r="I51" s="15"/>
       <c r="J51" s="13"/>
@@ -3387,24 +3541,24 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="88"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
       <c r="G53" s="68"/>
       <c r="O53" s="13"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
       <c r="G54" s="69"/>
       <c r="O54" s="13"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I58" s="70"/>
